--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -1841,17 +1841,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.74609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.46484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.96484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.9375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="48.40625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="15.40234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.66796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1860,27 +1860,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="124.42578125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.1640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.6171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="106.67578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.72265625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="101.08984375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="22.50390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="86.66796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="19.29296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-10</t>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -512,7 +512,7 @@
     <t>MedicationAdministration.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|Procedure)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -577,7 +577,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.statusReason</t>
@@ -601,7 +601,7 @@
     <t>A coded concept describing where the medication administered is expected to occur.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-admin-category|4.0.1</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
@@ -688,7 +688,7 @@
     <t>MedicationAdministration.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -919,7 +919,7 @@
     <t>A code describing the role an individual played in administering the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
+    <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -931,7 +931,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -959,7 +959,7 @@
     <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1027,7 +1027,7 @@
     <t>MedicationAdministration.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
     <t>A coded concept describing the site location the medicine enters into or onto the body.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes|4.0.1</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1140,7 +1140,7 @@
     <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/route-codes|4.0.1</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1280,6 +1280,9 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
     <t>Coding.code</t>
   </si>
   <si>
@@ -1425,7 +1428,7 @@
     <t>A coded concept describing the technique by which the medicine is administered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes|4.0.1</t>
   </si>
   <si>
     <t>.methodCode</t>
@@ -1437,7 +1440,7 @@
     <t>MedicationAdministration.dosage.dose</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1460,7 +1463,7 @@
   </si>
   <si>
     <t>Ratio
-Quantity {SimpleQuantity}</t>
+Quantity {SimpleQuantity|4.0.1}</t>
   </si>
   <si>
     <t>Dose quantity per unit of time</t>
@@ -1491,7 +1494,7 @@
     <t>MedicationAdministration.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -1851,7 +1854,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="63.66796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="78.85546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -8123,7 +8126,7 @@
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8141,7 +8144,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8159,13 +8162,13 @@
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8173,10 +8176,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8202,14 +8205,14 @@
         <v>240</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8258,7 +8261,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8276,13 +8279,13 @@
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8290,10 +8293,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8316,19 +8319,19 @@
         <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8377,7 +8380,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8395,13 +8398,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8409,13 +8412,13 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>365</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>78</v>
@@ -8440,10 +8443,10 @@
         <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>369</v>
@@ -8530,7 +8533,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>380</v>
@@ -8645,7 +8648,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>382</v>
@@ -8762,7 +8765,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>384</v>
@@ -8810,7 +8813,7 @@
         <v>78</v>
       </c>
       <c r="S60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T60" t="s" s="2">
         <v>78</v>
@@ -8881,7 +8884,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>394</v>
@@ -8998,7 +9001,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>402</v>
@@ -9027,7 +9030,7 @@
         <v>108</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>404</v>
@@ -9083,7 +9086,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9101,13 +9104,13 @@
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>78</v>
@@ -9115,10 +9118,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9144,14 +9147,14 @@
         <v>240</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9200,7 +9203,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9218,13 +9221,13 @@
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>78</v>
@@ -9232,10 +9235,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9258,19 +9261,19 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9319,7 +9322,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9337,13 +9340,13 @@
         <v>78</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>78</v>
@@ -9351,10 +9354,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9380,16 +9383,16 @@
         <v>240</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>78</v>
@@ -9438,7 +9441,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9456,13 +9459,13 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9470,10 +9473,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9499,13 +9502,13 @@
         <v>175</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9534,10 +9537,10 @@
         <v>178</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>78</v>
@@ -9555,7 +9558,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9573,13 +9576,13 @@
         <v>78</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>78</v>
@@ -9587,10 +9590,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9613,16 +9616,16 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9672,7 +9675,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9690,13 +9693,13 @@
         <v>78</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>78</v>
@@ -9704,10 +9707,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9730,16 +9733,16 @@
         <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9787,7 +9790,7 @@
         <v>250</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -9805,13 +9808,13 @@
         <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -9819,13 +9822,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>78</v>
@@ -9847,16 +9850,16 @@
         <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9906,7 +9909,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -9924,13 +9927,13 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -9938,10 +9941,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9964,16 +9967,16 @@
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10023,7 +10026,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10041,7 +10044,7 @@
         <v>78</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -3986,7 +3986,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>207</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
         <v>315</v>
       </c>
@@ -7004,7 +7004,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>355</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>472</v>
       </c>
@@ -10058,12 +10058,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO70">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-lmdi-medicationadministration.xlsx
+++ b/StructureDefinition-lmdi-medicationadministration.xlsx
@@ -747,7 +747,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-time-required:Må inneholde tidspunkt for administrering. {$this.matches('^[0-9]{4}-[0-9]{2}-[0-9]{2}T[0-9]{2}:[0-9]{2}.*$')}</t>
+time-required:Må inneholde tidspunkt for administrering. {$this.toString().matches('^[0-9]{4}-[0-9]{2}-[0-9]{2}T[0-9]{2}:[0-9]{2}.*$')}</t>
   </si>
   <si>
     <t>MedicationAdministration.effective[x]:effectivePeriod</t>
